--- a/test.xlsx
+++ b/test.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="yahaha" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -359,6 +359,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -372,23 +391,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CODE\pyts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CODE\pyts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="yahaha" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -111,7 +112,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -123,7 +124,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -170,6 +171,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -205,6 +223,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -391,4 +426,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>